--- a/interface/testdata/test_data.xlsx
+++ b/interface/testdata/test_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="10980"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="10980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="regis" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,76 +16,617 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开事务登记首页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://117.34.110.92:8991/Modules/Order/OrderALLEdit.aspx?vvcf=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>用例编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>pass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>LOGIN_001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有参数正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://117.34.110.92:8991/ProjectCodeHandler.ashx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginName=rexian01
-pwd=wnxy123456
-methodType=Login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐席岗账号密码正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LOGIN_002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginName=rexian
-pwd=wnxy123456
-methodType=Login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分转岗账号密码正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://117.34.110.92:8991/WorkLogin.aspx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分转岗账号错误</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>fail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginName=rexian01
-pwd=wnxy123
-methodType=Login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://117.34.110.92:8991/ProjectCodeHandler.ashx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分转岗密码错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGIS_001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENPAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开首页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://117.34.110.92:8991/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://117.34.110.92:8991/WorkLogin.aspx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://117.34.110.92:8991/Modules/Order/Order_InfoListz.aspx?State=100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开暂存事务首页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://117.34.110.92:8991/Modules/Order/OrderALLEdit.aspx?vvcf=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ScriptManager1 =upOrderInfo|btnAdd
+ISWriteLog=1
+hfAddressFlag=1
+hfFuJianIdFlag=
+Hidparentid=
+HiddvCallNo=
+hfhfcallid=0
+HiddSearch=0
+HiddLiuyan=0
+zixuncallid=0
+Zxid=0
+hidyincang1=1
+hidyincang2 =1
+hfPOrderID=
+hidbindXGSWState=
+getoldval=
+gettypeid=
+tbxCustName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙悟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+tbxphone=13259296111
+dlsex=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">男
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>age=0-18
+tbAddress=
+tbxidcard=
+tbtel=
+tbPeopleMemo=
+txtOtherLink=
+dlBusinessClassify=4
+selsourceinfoo=13
+selsourceinfooTwo=54
+dlLevel=2
+tbEndTime=
+dlCounty=11753
+dlAddressOne=11807
+dlAddressTwo=11808
+valitemsswt=
+hidOrderTypeNameewt=
+hidTypeName=
+valitems=
+hidOrderTypeName=
+ddpcc=1336
+hidOrderTypeID=
+specialOrder=
+LBTel1=8818351
+LBTel2=
+tbAFAddress=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">西安市碑林区陕西省人民医院
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>txtPlacename=
+txtSetLongitude=108.936629
+txtLatitude=34.245714
+tbTitle=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">电信诈骗
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>drpComm= 20
+selShiMin=1
+tbxContent=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市民来电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">无声电话
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hidClickID=
+rdoblfs=rbb2
+rdisExist=rdno
+tbxProductMemo=
+txtSecrecy=
+tbRemarks=
+dlslManYiDu=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+dlZhuanJieState=0
+txtcforderid=
+tb_hhContent=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无声电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">故归档。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cbsendMessage=on
+lbGuestID=
+hidOrderID=0
+hfOrderNumber=
+TabContainer1$tbKnowLedge$tbxSearch=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">诈骗
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TabContainer1$tbOrder$txtName=
+TabContainer1$tbOrder$dpZJSTypeXS=Radiozj
+TabContainer1$tbTaskInfoLike$tbSearchXGSW=
+lb_hhContent=
+hfCustomer=
+hfpr=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">陕西省
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hfci=
+hfcc=
+hfblfs=3
+hfname=
+hftxtcforderid=
+hfsource=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">来电
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hforderpoorid=
+hfopenid=
+hfAddTime=
+hidJKJS=0
+hidOrderState=
+hidStateName=
+__EVENTTARGET=btnAdd
+__EVENTARGUMENT=
+__LASTFOCUS=
+__AjaxControlToolkitCalendarCssLoaded=
+TabContainer1_ClientState={"ActiveTabIndex":0,"TabState":[true,true,true,true]}
+__VIEWSTATEENCRYPTED=
+__ASYNCPOST=true
+__VIEWSTATE=
+__EVENTVALIDATION=
+__VIEWSTATEGENERATOR=A19B93C9</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://117.34.110.92:8991/Modules/Order/Order_InfoListz.aspx?State=100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH_001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH_002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScriptManager1=upOrderInfo|selsourceinfoo
+hfstate=100
+checkedPids=
+HiddenField2=collapse in
+tbTaskNumber=
+tbClOper=
+tbAddOper=
+tbContent=
+tbTel=
+dlLevel=
+SWText=
+selsourceinfoo=13
+dlBusinessClassify=
+BeginTime=
+EndTime=
+txtFenZhuan=
+HiddenField1=
+__EVENTTARGET=selsourceinfoo
+__EVENTARGUMENT=
+__LASTFOCUS=
+__ASYNCPOST=true
+__VIEWSTATE=
+__VIEWSTATEGENERATOR=
+__EVENTVALIDATION=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScriptManager1=upOrderInfo|dlBusinessClassify
+hfstate=100
+checkedPids=
+HiddenField2=collapse in
+tbTaskNumber=
+tbClOper=
+tbAddOper=
+tbContent=
+tbTel=
+dlLevel=
+SWText=
+selsourceinfoo=13
+selsourceinfooTwo=54
+dlBusinessClassify=3
+BeginTime=
+EndTime=
+txtFenZhuan=
+HiddenField1=
+__EVENTTARGET=dlBusinessClassify
+__EVENTARGUMENT=
+__LASTFOCUS=
+__ASYNCPOST=true
+__VIEWSTATE=
+__VIEWSTATEGENERATOR=
+__EVENTVALIDATION=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂存事务查询_工单类型_投诉工单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂存事务查询_事务来源_来电_来电</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEARCH_003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂存事务查询_工单类型_查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScriptManager1=upOrderInfo|btnSearch
+hfstate=100
+checkedPids=
+HiddenField2=collapse in
+tbTaskNumber=
+tbClOper=
+tbAddOper=
+tbContent=
+tbTel=
+dlLevel=
+SWText=
+selsourceinfoo=13
+selsourceinfooTwo=54
+dlBusinessClassify=3
+BeginTime=2020-01-01 00:00:00
+EndTime=2020-01-01 00:00:00
+txtFenZhuan=
+HiddenField1=
+__EVENTTARGET=
+__EVENTARGUMENT=
+__LASTFOCUS=
+__ASYNCPOST=true
+btnSearch=查询
+__VIEWSTATE=
+__VIEWSTATEGENERATOR=
+__EVENTVALIDATION=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbxUserId=z_zuoxi
+tbxPassWord=KXTsoft2010
+ExtCode=11
+button_Login=
+__VIEWSTATE=/wEPDwUKMTgzNzY5NTI1MQ9kFgJmD2QWAgIFDxYCHgdWaXNpYmxlZ2RkBOXXCzbutjT6pfqACxvF4ZCt1nwH/izDXf6nLQeayVg=
+__VIEWSTATEGENERATOR=7499E42F
+__EVENTVALIDATION=/wEdAAXOoHLZV3PkzqfEQMGnhlaR5I6MVFg+U9OKz5lgg7euiq+qPVcAjhKE3SynV/HUDl3rG6GhuuM4ocA7IbPIyIVQV2Ax9CSiNoU0JiE+9h46F+xx6aU5MT868PY5lkgdS6u8qdtAhd7XKBMQnkg0yeGt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbxUserId=z_fenzhuan
+tbxPassWord=KXTsoft2010
+ExtCode=
+button_Login=
+__VIEWSTATE=/wEPDwUKMTgzNzY5NTI1MQ9kFgJmD2QWAgIFDxYCHgdWaXNpYmxlZ2RkBOXXCzbutjT6pfqACxvF4ZCt1nwH/izDXf6nLQeayVg=
+__VIEWSTATEGENERATOR=7499E42F
+__EVENTVALIDATION=/wEdAAXOoHLZV3PkzqfEQMGnhlaR5I6MVFg+U9OKz5lgg7euiq+qPVcAjhKE3SynV/HUDl3rG6GhuuM4ocA7IbPIyIVQV2Ax9CSiNoU0JiE+9h46F+xx6aU5MT868PY5lkgdS6u8qdtAhd7XKBMQnkg0yeGt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbxUserId=fenzhuan01
+tbxPassWord=KXTsoft2010
+ExtCode=
+button_Login=
+__VIEWSTATE=/wEPDwUKMTgzNzY5NTI1MQ9kFgJmD2QWAgIFDxYCHgdWaXNpYmxlZ2RkBOXXCzbutjT6pfqACxvF4ZCt1nwH/izDXf6nLQeayVg=
+__VIEWSTATEGENERATOR=7499E42F
+__EVENTVALIDATION=/wEdAAXOoHLZV3PkzqfEQMGnhlaR5I6MVFg+U9OKz5lgg7euiq+qPVcAjhKE3SynV/HUDl3rG6GhuuM4ocA7IbPIyIVQV2Ax9CSiNoU0JiE+9h46F+xx6aU5MT868PY5lkgdS6u8qdtAhd7XKBMQnkg0yeGt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbxUserId=fenzhuan
+tbxPassWord=wnxy123
+ExtCode=
+button_Login=
+__VIEWSTATE=/wEPDwUKMTgzNzY5NTI1MQ9kFgJmD2QWAgIFDxYCHgdWaXNpYmxlZ2RkBOXXCzbutjT6pfqACxvF4ZCt1nwH/izDXf6nLQeayVg=
+__VIEWSTATEGENERATOR=7499E42F
+__EVENTVALIDATION=/wEdAAXOoHLZV3PkzqfEQMGnhlaR5I6MVFg+U9OKz5lgg7euiq+qPVcAjhKE3SynV/HUDl3rG6GhuuM4ocA7IbPIyIVQV2Ax9CSiNoU0JiE+9h46F+xx6aU5MT868PY5lkgdS6u8qdtAhd7XKBMQnkg0yeGt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +634,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +699,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +732,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,6 +768,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -214,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,9 +803,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -234,13 +810,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -545,109 +1178,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="62.75" customWidth="1"/>
-    <col min="4" max="5" width="23.125" customWidth="1"/>
+    <col min="1" max="2" width="23.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="62.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:5" ht="153" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
+    <row r="4" spans="1:5" ht="266.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="34" style="7" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="337.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="351" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="351" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
